--- a/data/regression_name_list1247.xlsx
+++ b/data/regression_name_list1247.xlsx
@@ -462,7 +462,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1826,7 +1826,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1895,7 +1895,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1957,7 +1957,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2019,7 +2019,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2143,7 +2143,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2205,7 +2205,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2267,7 +2267,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2329,7 +2329,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2453,7 +2453,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2508,7 +2508,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2577,7 +2577,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2701,7 +2701,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2763,7 +2763,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2887,7 +2887,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2949,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3011,7 +3011,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3073,7 +3073,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3190,7 +3190,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3259,7 +3259,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3321,7 +3321,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3383,7 +3383,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3445,7 +3445,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3507,7 +3507,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3569,7 +3569,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3631,7 +3631,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3755,7 +3755,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3817,7 +3817,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3872,7 +3872,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3941,7 +3941,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4003,7 +4003,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4065,7 +4065,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4127,7 +4127,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4189,7 +4189,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4554,7 +4554,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5236,7 +5236,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
